--- a/cbrunner/Parameters/Parameters_gromo_m1.xlsx
+++ b/cbrunner/Parameters/Parameters_gromo_m1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.20464922262709</v>
+        <v>2.807585680409082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4150170670903658</v>
+        <v>0.2517492580807255</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.229303069945517</v>
+        <v>-1.240812135961268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4272764460877063</v>
+        <v>0.2463268931750678</v>
       </c>
       <c r="D3" t="n">
-        <v>-35</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.151872738013067</v>
+        <v>-1.659498887617713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.422441706754942</v>
+        <v>0.2461740508063087</v>
       </c>
       <c r="D4" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.92522561467647</v>
+        <v>-1.721920333672345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4180653093853103</v>
+        <v>0.2442953248279791</v>
       </c>
       <c r="D5" t="n">
-        <v>-22</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.624249698320292</v>
+        <v>-1.720120121719233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4139337153017131</v>
+        <v>0.2414741263317383</v>
       </c>
       <c r="D6" t="n">
-        <v>-25</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.872102530567731</v>
+        <v>-1.661223679195569</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4109139530870852</v>
+        <v>0.2408655813997567</v>
       </c>
       <c r="D7" t="n">
-        <v>-22</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.756764336808451</v>
+        <v>-1.659674894917379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.411680326730393</v>
+        <v>0.2403399028085242</v>
       </c>
       <c r="D8" t="n">
-        <v>-23</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.643903365389763</v>
+        <v>-1.594488738634871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.467241586245301</v>
+        <v>0.2548978704133952</v>
       </c>
       <c r="D9" t="n">
-        <v>-28</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.248235531128586</v>
+        <v>-1.388178174812989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4144593758962917</v>
+        <v>0.2417389605455122</v>
       </c>
       <c r="D10" t="n">
-        <v>-33</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.371950515372186</v>
+        <v>-1.104749349430336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4105617489286802</v>
+        <v>0.2398092549195097</v>
       </c>
       <c r="D11" t="n">
-        <v>-30</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.313034280052712</v>
+        <v>-1.442487080248553</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5840938975227774</v>
+        <v>0.3164500532261067</v>
       </c>
       <c r="D12" t="n">
-        <v>-44</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="13">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.514210124995532</v>
+        <v>-1.97439701604309</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4466265576264659</v>
+        <v>0.2670626315779383</v>
       </c>
       <c r="D13" t="n">
-        <v>-18</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="14">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.763364804831388</v>
+        <v>-1.667284029001101</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4252956033425541</v>
+        <v>0.2454942125316527</v>
       </c>
       <c r="D14" t="n">
-        <v>-24</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="15">
@@ -659,365 +659,173 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.929075260941451</v>
+        <v>-1.435389402379513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4212968845169197</v>
+        <v>0.2433800630982245</v>
       </c>
       <c r="D15" t="n">
-        <v>-22</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DAB</t>
+          <t>B_z</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.375973645210999</v>
+        <v>-0.01908030178897613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04715517228175813</v>
+        <v>0.01681775730614544</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>A_z</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.166519561328728</v>
+        <v>0.161649385455789</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05952301717170794</v>
+        <v>0.01780516662017871</v>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DAF</t>
+          <t>A_z_sq</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.066500606000871</v>
+        <v>-0.0210324747375104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1080005692401369</v>
+        <v>0.002766744191199952</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DAP</t>
+          <t>DAB</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04866048350883878</v>
+        <v>1.335726295068444</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03535701270674936</v>
+        <v>0.04308146766266411</v>
       </c>
       <c r="D19" t="n">
-        <v>-73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>OGP</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.7569946362319447</v>
+        <v>0.1329372279303348</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07857346333861254</v>
+        <v>0.05538419964002743</v>
       </c>
       <c r="D20" t="n">
-        <v>-10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>DAF</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04800117036369763</v>
+        <v>1.030447334784823</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02721226706385077</v>
+        <v>0.1012313308531787</v>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DAP</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01102788782159452</v>
+        <v>-0.06344207880182959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002963991433619408</v>
+        <v>0.03276724112744325</v>
       </c>
       <c r="D22" t="n">
-        <v>-27</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>IPN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003547879325136861</v>
+        <v>-0.5040596820519424</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005881827658880388</v>
+        <v>0.08774687370704143</v>
       </c>
       <c r="D23" t="n">
-        <v>-166</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>B:C(LS)[T.AT]</t>
+          <t>IH</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001733921953889243</v>
+        <v>-0.06524858851284578</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006329741666834806</v>
+        <v>0.1553992782537738</v>
       </c>
       <c r="D24" t="n">
-        <v>365</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>B:C(LS)[T.BL]</t>
+          <t>IPN:IH</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01415816632057072</v>
+        <v>0.0919138986592502</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006292276127795681</v>
+        <v>0.1572085569877825</v>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.CW]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.005026254480691816</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.005936901335960059</v>
-      </c>
-      <c r="D26" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.FDC]</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.002278909510016594</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.005899689663370255</v>
-      </c>
-      <c r="D27" t="n">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.FDI]</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.006939200227886415</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.005921868395492582</v>
-      </c>
-      <c r="D28" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.HWC]</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.00339106077591094</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.005891764111779829</v>
-      </c>
-      <c r="D29" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.HWI]</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.003679913792194887</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.006403534093531</v>
-      </c>
-      <c r="D30" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.O]</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0005124489017961101</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.00594947558581105</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.PL]</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.006954394555342947</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.005937310429496418</v>
-      </c>
-      <c r="D32" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.SB]</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.003518016736459116</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.01152860768667835</v>
-      </c>
-      <c r="D33" t="n">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.SE]</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.01598601341905902</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.006883958724501676</v>
-      </c>
-      <c r="D34" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.SS]</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.003614412028994506</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.00591115250277597</v>
-      </c>
-      <c r="D35" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>B:C(LS)[T.SW]</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.009972545816518482</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.00604854765547887</v>
-      </c>
-      <c r="D36" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>A_z</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.08524078409404964</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.01472042738389721</v>
-      </c>
-      <c r="D37" t="n">
-        <v>17</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
